--- a/Tuntilista.xlsx
+++ b/Tuntilista.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piia Laine\Desktop\Blog Project\Blog_Nr.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC1B257-7653-42AF-A6EC-B50DDA6C3379}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B4D2DF-F6D9-4E4C-852D-2EC701EB1428}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCF1870E-40DF-4038-B11C-96609FC65FFD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CCF1870E-40DF-4038-B11C-96609FC65FFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuntilista" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Tuntilista</t>
   </si>
@@ -67,13 +67,31 @@
   </si>
   <si>
     <t>Project Presentation</t>
+  </si>
+  <si>
+    <t>Deadlines / Milestones</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Setting up Tomcat</t>
+  </si>
+  <si>
+    <t>Testing out JSP</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Frontpage Prototype</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,24 +122,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color rgb="FF7E2480"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FF002060"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF002060"/>
+      <color rgb="FF7E2480"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,22 +139,16 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color rgb="FF002060"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF002060"/>
+      <color rgb="FF7E2480"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF002060"/>
+      <i/>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,18 +163,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF9F2EA2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -343,43 +347,6 @@
         <color rgb="FF5D1B5F"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF5D1B5F"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF5D1B5F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF5D1B5F"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF5D1B5F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF5D1B5F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5D1B5F"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF5D1B5F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF5D1B5F"/>
-      </left>
-      <right/>
       <top style="medium">
         <color rgb="FF5D1B5F"/>
       </top>
@@ -410,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -427,105 +394,78 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -554,7 +494,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-teema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -853,14 +793,14 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -868,221 +808,313 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-    </row>
-    <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" s="5" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="23">
         <v>43619</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="E6" s="13">
-        <v>2.5</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19">
         <f>E6-D6</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="26">
         <v>43621</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="22">
+        <f>E7-D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>43623</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="27">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21">
         <v>1.5</v>
       </c>
-      <c r="E7" s="19">
+      <c r="F8" s="22">
+        <f t="shared" ref="F8:F23" si="0">E8-D8</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>43623</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="27">
+        <v>1</v>
+      </c>
+      <c r="E9" s="28">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>43625</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>43626</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="20">
         <v>1.5</v>
       </c>
-      <c r="F7" s="20">
-        <f>E7-D7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-    </row>
-    <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-    </row>
-    <row r="23" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14">
+        <f>SUM(D6:D23)</f>
+        <v>5.5</v>
+      </c>
+      <c r="E24" s="15">
+        <f>SUM(E6:E23)</f>
+        <v>6</v>
+      </c>
+      <c r="F24" s="16">
+        <f>SUM(F6:F23)</f>
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Tuntilista.xlsx
+++ b/Tuntilista.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piia Laine\Desktop\Blog Project\Blog_Nr.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piia Laine\Desktop\Blog Project\Blog_Nr.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B4D2DF-F6D9-4E4C-852D-2EC701EB1428}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC1D67E2-D600-415D-8F64-1FD97339C73E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CCF1870E-40DF-4038-B11C-96609FC65FFD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Tuntilista</t>
   </si>
@@ -85,6 +85,36 @@
   </si>
   <si>
     <t>Frontpage Prototype</t>
+  </si>
+  <si>
+    <t>Researching Java</t>
+  </si>
+  <si>
+    <t>JSP Tutorials</t>
+  </si>
+  <si>
+    <t>Experimenting with JSP</t>
+  </si>
+  <si>
+    <t>Navbar, Image Slideshow</t>
+  </si>
+  <si>
+    <t>Creating the Frontpage</t>
+  </si>
+  <si>
+    <t>CSS (Banner, Boxes) &amp; HTML</t>
+  </si>
+  <si>
+    <t>Image Slideshow</t>
+  </si>
+  <si>
+    <t>Image Slideshow - Trying to find a Solution</t>
+  </si>
+  <si>
+    <t>Researching Angular</t>
+  </si>
+  <si>
+    <t>Angular CLI Installation, Angular Tutorials</t>
   </si>
 </sst>
 </file>
@@ -792,15 +822,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3A581D-EAD2-4F86-A495-B87C1B00863B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -968,66 +998,126 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
+      <c r="A12" s="26">
+        <v>43628</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="27">
+        <v>1</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1</v>
+      </c>
       <c r="F12" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
+      <c r="A13" s="26">
+        <v>43629</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
       <c r="F13" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
+      <c r="A14" s="26">
+        <v>43630</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1</v>
+      </c>
       <c r="F14" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
+      <c r="A15" s="26">
+        <v>43632</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0.5</v>
+      </c>
       <c r="F15" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+      <c r="A16" s="26">
+        <v>43633</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1</v>
+      </c>
       <c r="F16" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
+      <c r="A17" s="26">
+        <v>43633</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="27">
+        <v>1</v>
+      </c>
+      <c r="E17" s="28">
+        <v>1</v>
+      </c>
       <c r="F17" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1105,15 +1195,15 @@
       <c r="C24" s="13"/>
       <c r="D24" s="14">
         <f>SUM(D6:D23)</f>
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="E24" s="15">
         <f>SUM(E6:E23)</f>
-        <v>6</v>
+        <v>11.5</v>
       </c>
       <c r="F24" s="16">
         <f>SUM(F6:F23)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Tuntilista.xlsx
+++ b/Tuntilista.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piia Laine\Desktop\Blog Project\Blog_Nr.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piia Laine\Desktop\Blog Project\Blog_Nr.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC1D67E2-D600-415D-8F64-1FD97339C73E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64315430-8522-4BCD-9E6F-786A1F057353}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CCF1870E-40DF-4038-B11C-96609FC65FFD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Tuntilista</t>
   </si>
@@ -115,6 +115,39 @@
   </si>
   <si>
     <t>Angular CLI Installation, Angular Tutorials</t>
+  </si>
+  <si>
+    <t>Tutorials and Experimentation</t>
+  </si>
+  <si>
+    <t>Including Angular Material and Tutorials</t>
+  </si>
+  <si>
+    <t>Angular Material and Routing Tutorials</t>
+  </si>
+  <si>
+    <t>Creating Anime and Contact Page</t>
+  </si>
+  <si>
+    <t>Researching Databases</t>
+  </si>
+  <si>
+    <t>MySQL, AWS, MongoDB, lowdb</t>
+  </si>
+  <si>
+    <t>Contact Page</t>
+  </si>
+  <si>
+    <t>Creating the Design</t>
+  </si>
+  <si>
+    <t>Designing Anime Page and Routing</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Creation and Implementation</t>
   </si>
 </sst>
 </file>
@@ -820,17 +853,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3A581D-EAD2-4F86-A495-B87C1B00863B}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -930,7 +963,7 @@
         <v>1.5</v>
       </c>
       <c r="F8" s="22">
-        <f t="shared" ref="F8:F23" si="0">E8-D8</f>
+        <f t="shared" ref="F8:F33" si="0">E8-D8</f>
         <v>0.5</v>
       </c>
     </row>
@@ -1049,15 +1082,15 @@
       <c r="C14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="20">
-        <v>1.5</v>
+      <c r="D14" s="27">
+        <v>2</v>
       </c>
       <c r="E14" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="22">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1070,15 +1103,15 @@
       <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="21">
-        <v>0.5</v>
+      <c r="D15" s="27">
+        <v>2</v>
+      </c>
+      <c r="E15" s="28">
+        <v>4</v>
       </c>
       <c r="F15" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1091,15 +1124,15 @@
       <c r="C16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="28">
+      <c r="D16" s="27">
         <v>1</v>
       </c>
+      <c r="E16" s="21">
+        <v>3.5</v>
+      </c>
       <c r="F16" s="22">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1113,97 +1146,277 @@
         <v>27</v>
       </c>
       <c r="D17" s="27">
+        <v>2</v>
+      </c>
+      <c r="E17" s="28">
+        <v>3</v>
+      </c>
+      <c r="F17" s="22">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E17" s="28">
+    </row>
+    <row r="18" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>43634</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="27">
+        <v>2</v>
+      </c>
+      <c r="E18" s="28">
+        <v>4</v>
+      </c>
+      <c r="F18" s="22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>43636</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="27">
+        <v>3</v>
+      </c>
+      <c r="E19" s="28">
+        <v>3</v>
+      </c>
+      <c r="F19" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
+        <v>43637</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="27">
+        <v>3</v>
+      </c>
+      <c r="E20" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="F20" s="22">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>43638</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="27">
+        <v>3</v>
+      </c>
+      <c r="E21" s="28">
+        <v>3</v>
+      </c>
+      <c r="F21" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <v>43639</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="27">
+        <v>2</v>
+      </c>
+      <c r="E22" s="28">
+        <v>2</v>
+      </c>
+      <c r="F22" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
+        <v>43640</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="27">
         <v>1</v>
       </c>
-      <c r="F17" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="28">
+        <v>1</v>
+      </c>
       <c r="F23" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14">
-        <f>SUM(D6:D23)</f>
-        <v>10.5</v>
-      </c>
-      <c r="E24" s="15">
-        <f>SUM(E6:E23)</f>
-        <v>11.5</v>
-      </c>
-      <c r="F24" s="16">
-        <f>SUM(F6:F23)</f>
-        <v>1</v>
+    <row r="24" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
+        <v>43642</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="27">
+        <v>2</v>
+      </c>
+      <c r="E24" s="28">
+        <v>2</v>
+      </c>
+      <c r="F24" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="26"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14">
+        <f>SUM(D6:D33)</f>
+        <v>30</v>
+      </c>
+      <c r="E34" s="15">
+        <f>SUM(E6:E33)</f>
+        <v>38</v>
+      </c>
+      <c r="F34" s="16">
+        <f>SUM(F6:F33)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Tuntilista.xlsx
+++ b/Tuntilista.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piia Laine\Desktop\Blog Project\Blog_Nr.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piia Laine\Desktop\Blog Project\Blog_Nr.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64315430-8522-4BCD-9E6F-786A1F057353}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014F1528-3667-4C47-A4BB-EFA7FE4988F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CCF1870E-40DF-4038-B11C-96609FC65FFD}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>Tuntilista</t>
   </si>
@@ -148,6 +150,120 @@
   </si>
   <si>
     <t>Creation and Implementation</t>
+  </si>
+  <si>
+    <t>MongoDB, lowdb</t>
+  </si>
+  <si>
+    <t>Researching Databases + Tutorials</t>
+  </si>
+  <si>
+    <t>Researching MongoDB + Tutorials</t>
+  </si>
+  <si>
+    <t>MongoDB Atlas, mlab</t>
+  </si>
+  <si>
+    <t>Experimenting with MongoDB</t>
+  </si>
+  <si>
+    <t>MEAN Stack Tutorials and Implementation</t>
+  </si>
+  <si>
+    <t>Testing MongoDB</t>
+  </si>
+  <si>
+    <t>Postman, Get Data</t>
+  </si>
+  <si>
+    <t>Setting up the MongoDB Database</t>
+  </si>
+  <si>
+    <t>Watching Tutorials and Creating a User Schema</t>
+  </si>
+  <si>
+    <t>Watching Tutorials and Creating Schema</t>
+  </si>
+  <si>
+    <t>Angular Authentication</t>
+  </si>
+  <si>
+    <t>Research, Tutorials, Implementation</t>
+  </si>
+  <si>
+    <t>Creating the Register Component &amp; Service</t>
+  </si>
+  <si>
+    <t>Setting up the Backend</t>
+  </si>
+  <si>
+    <t>server.js, api - register and login</t>
+  </si>
+  <si>
+    <t>Register and Login Page, Connecting to the DB</t>
+  </si>
+  <si>
+    <t>Angular Authentication &amp; CSS</t>
+  </si>
+  <si>
+    <t>Registering Users, Implementation of my Font and Carousel</t>
+  </si>
+  <si>
+    <t>Creating the mongoDB collection, Creating Anime Reviews</t>
+  </si>
+  <si>
+    <t>Setting up the Posts Pages</t>
+  </si>
+  <si>
+    <t>Connecting Anime Review Page with DB</t>
+  </si>
+  <si>
+    <t>Connecting the different Components, Getting the DB Data</t>
+  </si>
+  <si>
+    <t>Continuing Anime Review Page</t>
+  </si>
+  <si>
+    <t>Displaying single Posts, Selecting Posts</t>
+  </si>
+  <si>
+    <t>Posting Anime Reviews from the Page</t>
+  </si>
+  <si>
+    <t>Post Data to the DB from Anime Reviews Page</t>
+  </si>
+  <si>
+    <t>Finishing the Posting and Select Feature</t>
+  </si>
+  <si>
+    <t>Creating the Blog and Games Review Pages</t>
+  </si>
+  <si>
+    <t>DB, Get Data, Post Data, CSS, HTML</t>
+  </si>
+  <si>
+    <t>Finishing Touches on the Posts and Reviews</t>
+  </si>
+  <si>
+    <t>Graphics (Stars &amp; Dog Paws), Colors</t>
+  </si>
+  <si>
+    <t>Finishing the Blog</t>
+  </si>
+  <si>
+    <t>Finishing CSS and Texts</t>
+  </si>
+  <si>
+    <t>Hosting the Blog</t>
+  </si>
+  <si>
+    <t>Trying Firebase and Heroku, Hosting the Backend on Heroku</t>
+  </si>
+  <si>
+    <t>Trying Heroku, Hosting the Frontend (Angular App) on Firebase</t>
+  </si>
+  <si>
+    <t>Hosting the Blog, Writing End Report</t>
   </si>
 </sst>
 </file>
@@ -440,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -524,6 +640,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,17 +972,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3A581D-EAD2-4F86-A495-B87C1B00863B}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -962,8 +1081,8 @@
       <c r="E8" s="21">
         <v>1.5</v>
       </c>
-      <c r="F8" s="22">
-        <f t="shared" ref="F8:F33" si="0">E8-D8</f>
+      <c r="F8" s="29">
+        <f t="shared" ref="F8:F45" si="0">E8-D8</f>
         <v>0.5</v>
       </c>
     </row>
@@ -1067,7 +1186,7 @@
       <c r="E13" s="28">
         <v>1</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="29">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -1130,7 +1249,7 @@
       <c r="E16" s="21">
         <v>3.5</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="29">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -1214,7 +1333,7 @@
       <c r="E20" s="21">
         <v>2.5</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="29">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
@@ -1304,119 +1423,461 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
+      <c r="A25" s="26">
+        <v>43647</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="27">
+        <v>3</v>
+      </c>
+      <c r="E25" s="28">
+        <v>3</v>
+      </c>
       <c r="F25" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
+      <c r="A26" s="26">
+        <v>43648</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="27">
+        <v>2</v>
+      </c>
+      <c r="E26" s="28">
+        <v>3</v>
+      </c>
       <c r="F26" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
+      <c r="A27" s="26">
+        <v>43649</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="28">
+        <v>3</v>
+      </c>
       <c r="F27" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A28" s="26">
+        <v>43650</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="27">
+        <v>1</v>
+      </c>
+      <c r="E28" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="29">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A29" s="26">
+        <v>43652</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="27">
+        <v>4</v>
+      </c>
+      <c r="E29" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="F29" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
+      <c r="A30" s="26">
+        <v>43654</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="27">
+        <v>4</v>
+      </c>
+      <c r="E30" s="28">
+        <v>2</v>
+      </c>
       <c r="F30" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
+      <c r="A31" s="26">
+        <v>43655</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="27">
+        <v>2</v>
+      </c>
+      <c r="E31" s="28">
+        <v>2</v>
+      </c>
       <c r="F31" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="21"/>
+      <c r="A32" s="26">
+        <v>43658</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="27">
+        <v>2</v>
+      </c>
+      <c r="E32" s="28">
+        <v>2</v>
+      </c>
       <c r="F32" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
+        <f>E32-D32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26">
+        <v>43659</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="27">
+        <v>2</v>
+      </c>
+      <c r="E33" s="28">
+        <v>2</v>
+      </c>
       <c r="F33" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14">
-        <f>SUM(D6:D33)</f>
-        <v>30</v>
-      </c>
-      <c r="E34" s="15">
-        <f>SUM(E6:E33)</f>
-        <v>38</v>
-      </c>
-      <c r="F34" s="16">
-        <f>SUM(F6:F33)</f>
-        <v>8</v>
+        <f>E33-D33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
+        <v>43660</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="27">
+        <v>1</v>
+      </c>
+      <c r="E34" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="F34" s="29">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
+        <v>43661</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="27">
+        <v>3</v>
+      </c>
+      <c r="E35" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="F35" s="29">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26">
+        <v>43663</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="27">
+        <v>2</v>
+      </c>
+      <c r="E36" s="28">
+        <v>2</v>
+      </c>
+      <c r="F36" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26">
+        <v>43664</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="27">
+        <v>2</v>
+      </c>
+      <c r="E37" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="F37" s="29">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26">
+        <v>43667</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="27">
+        <v>3</v>
+      </c>
+      <c r="E38" s="28">
+        <v>3</v>
+      </c>
+      <c r="F38" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="26">
+        <v>43668</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="27">
+        <v>4</v>
+      </c>
+      <c r="E39" s="28">
+        <v>4</v>
+      </c>
+      <c r="F39" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26">
+        <v>43669</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="27">
+        <v>4</v>
+      </c>
+      <c r="E40" s="28">
+        <v>4</v>
+      </c>
+      <c r="F40" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
+        <v>43670</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="27">
+        <v>3</v>
+      </c>
+      <c r="E41" s="28">
+        <v>3</v>
+      </c>
+      <c r="F41" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="26">
+        <v>43671</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="27">
+        <v>1</v>
+      </c>
+      <c r="E42" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="F42" s="22">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="26">
+        <v>43672</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="27">
+        <v>2</v>
+      </c>
+      <c r="E43" s="28">
+        <v>2</v>
+      </c>
+      <c r="F43" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="26">
+        <v>43673</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="27">
+        <v>1</v>
+      </c>
+      <c r="E44" s="28">
+        <v>3</v>
+      </c>
+      <c r="F44" s="22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="26">
+        <v>43674</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="27">
+        <v>2</v>
+      </c>
+      <c r="E45" s="28">
+        <v>4</v>
+      </c>
+      <c r="F45" s="22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14">
+        <f>SUM(D6:D45)</f>
+        <v>81</v>
+      </c>
+      <c r="E46" s="15">
+        <f>SUM(E6:E45)</f>
+        <v>95</v>
+      </c>
+      <c r="F46" s="16">
+        <f>SUM(F6:F45)</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
